--- a/bin/test1/design_config/CFG_Hello.xlsx
+++ b/bin/test1/design_config/CFG_Hello.xlsx
@@ -13,10 +13,10 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1619976614" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1619976614" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1619976614" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1619976614"/>
+      <pm:revision xmlns:pm="smNativeData" day="1620034053" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1620034053" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1620034053" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1620034053"/>
     </ext>
   </extLst>
 </workbook>
@@ -184,7 +184,7 @@
     <t>x|yy#q|w|e+12|vv#xx|yy</t>
   </si>
   <si>
-    <t>空白的处理，  0  “”</t>
+    <t>空白的处理 不要逗号</t>
   </si>
 </sst>
 </file>
@@ -214,7 +214,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1619976614" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1620034053" ulstyle="none" kern="1">
             <pm:latin face="等线" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -229,7 +229,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1619976614" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1620034053" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -245,7 +245,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1619976614" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1620034053" ulstyle="none" kern="1">
             <pm:latin face="微软雅黑" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -267,7 +267,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1619976614" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1620034053" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -289,7 +289,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1619976614"/>
+          <pm:border xmlns:pm="smNativeData" id="1620034053"/>
         </ext>
       </extLst>
     </border>
@@ -308,7 +308,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1619976614"/>
+          <pm:border xmlns:pm="smNativeData" id="1620034053"/>
         </ext>
       </extLst>
     </border>
@@ -358,7 +358,7 @@
         <color rgb="FF9C0006"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1619976614" fgClr="9C0006">
+            <pm:charSpec xmlns:pm="smNativeData" id="1620034053" fgClr="9C0006">
               <pm:latin/>
               <pm:cs/>
               <pm:ea/>
@@ -371,7 +371,7 @@
           <bgColor rgb="FFFFC7CE"/>
           <extLst>
             <ext uri="smNativeData">
-              <pm:shade xmlns:pm="smNativeData" id="1619976614" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="100" bgClr="FFFFFFFF"/>
+              <pm:shade xmlns:pm="smNativeData" id="1620034053" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="100" bgClr="FFFFFFFF"/>
             </ext>
           </extLst>
         </patternFill>
@@ -382,7 +382,7 @@
         <color rgb="FF9C0006"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1619976614" fgClr="9C0006">
+            <pm:charSpec xmlns:pm="smNativeData" id="1620034053" fgClr="9C0006">
               <pm:latin/>
               <pm:cs/>
               <pm:ea/>
@@ -395,7 +395,7 @@
           <bgColor rgb="FFFFC7CE"/>
           <extLst>
             <ext uri="smNativeData">
-              <pm:shade xmlns:pm="smNativeData" id="1619976614" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="100" bgClr="FFFFFFFF"/>
+              <pm:shade xmlns:pm="smNativeData" id="1620034053" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="100" bgClr="FFFFFFFF"/>
             </ext>
           </extLst>
         </patternFill>
@@ -405,10 +405,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1619976614" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1620034053" count="1">
         <pm:charStyle name="普通" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1619976614" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1620034053" count="3">
         <pm:color name="颜色 24" rgb="9C0006"/>
         <pm:color name="颜色 25" rgb="FFC7CE"/>
         <pm:color name="20% 灰色" rgb="000000"/>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="110" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A4" zoomScale="110" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.034483" defaultRowHeight="15.20"/>
@@ -1859,7 +1859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.10" customHeight="1">
+    <row r="6" spans="1:9" ht="20.10" customHeight="1">
       <c r="A6" s="6" t="n">
         <v>2</v>
       </c>
@@ -1967,7 +1967,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1619976614" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1620034053" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1976,16 +1976,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1619976614" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1619976614" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1619976614" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1619976614" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1620034053" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1620034053" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1620034053" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1620034053" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619976614" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1620034053" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
